--- a/performance/% of Class Conduction.xlsx
+++ b/performance/% of Class Conduction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Performance Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F098010-6F39-4CB8-8095-D8B44ABBB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A4323-BA37-422A-9193-FA05013A5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Year 2024" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Year 2024'!$C$1:$F$2</c:f>
+              <c:f>'Year 2024'!$C$1:$G$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan-June</c:v>
@@ -484,6 +484,9 @@
                   <c:pt idx="3">
                     <c:v>Sep</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Oct</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -495,10 +498,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Year 2024'!$C$3:$F$3</c:f>
+              <c:f>'Year 2024'!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.82140000000000002</c:v>
                 </c:pt>
@@ -510,13 +513,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82EA-4611-9C1F-122F46A76EAD}"/>
+              <c16:uniqueId val="{00000000-AC7B-4F41-93D0-8BE1C30DE5E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -549,9 +555,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Year 2024'!$C$1:$F$2</c:f>
+              <c:f>'Year 2024'!$C$1:$G$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan-June</c:v>
@@ -565,6 +571,9 @@
                   <c:pt idx="3">
                     <c:v>Sep</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Oct</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -576,10 +585,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Year 2024'!$C$4:$F$4</c:f>
+              <c:f>'Year 2024'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.88460000000000005</c:v>
                 </c:pt>
@@ -591,13 +600,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82EA-4611-9C1F-122F46A76EAD}"/>
+              <c16:uniqueId val="{00000001-AC7B-4F41-93D0-8BE1C30DE5E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,9 +642,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Year 2024'!$C$1:$F$2</c:f>
+              <c:f>'Year 2024'!$C$1:$G$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan-June</c:v>
@@ -646,6 +658,9 @@
                   <c:pt idx="3">
                     <c:v>Sep</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Oct</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -657,10 +672,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Year 2024'!$C$5:$F$5</c:f>
+              <c:f>'Year 2024'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -672,13 +687,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-82EA-4611-9C1F-122F46A76EAD}"/>
+              <c16:uniqueId val="{00000002-AC7B-4F41-93D0-8BE1C30DE5E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -692,13 +710,13 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="793554080"/>
-        <c:axId val="793551200"/>
+        <c:axId val="1034046800"/>
+        <c:axId val="1034050640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="793554080"/>
+        <c:axId val="1034046800"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -739,7 +757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="793551200"/>
+        <c:crossAx val="1034050640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -747,12 +765,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="793551200"/>
+        <c:axId val="1034050640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -798,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="793554080"/>
+        <c:crossAx val="1034046800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,22 +1451,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>30161</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E20840-B592-9FE1-2362-9520F62FDB82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5971490B-0C59-EB63-3D21-9D66A8B10B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1753,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,7 +1829,9 @@
       <c r="F3" s="8">
         <v>0.5</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="10"/>
     </row>
@@ -1834,7 +1854,9 @@
       <c r="F4" s="8">
         <v>0.6</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>0.3</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="10"/>
     </row>
@@ -1857,7 +1879,9 @@
       <c r="F5" s="16">
         <v>0</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="11"/>
     </row>
